--- a/downloaded_files/MDPS332_Lecture-35376.xlsx
+++ b/downloaded_files/MDPS332_Lecture-35376.xlsx
@@ -66,7 +66,7 @@
     <x:t>احمد هشام محمد ابوالعزايم مختار</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Hesham Mohmed</x:t>
+    <x:t>Ahmed Hisham Muhammad Abu Al-Azayem, Mukhtar</x:t>
   </x:si>
   <x:si>
     <x:t>1210132</x:t>
@@ -758,7 +758,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.180625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.150625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.530625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/MDPS332_Lecture-35376.xlsx
+++ b/downloaded_files/MDPS332_Lecture-35376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,15 +109,6 @@
   </x:si>
   <x:si>
     <x:t>Daniel Raed Mounir Takawi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رنا عاطف سعد عرفه موسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana Atef saad arafa</x:t>
   </x:si>
   <x:si>
     <x:t>1210223</x:t>
@@ -449,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1126,7 +1117,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6650867245</x:v>
+        <x:v>45906.6647797454</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1158,7 +1149,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6647797454</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1190,7 +1181,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1222,7 +1213,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1254,7 +1245,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1286,7 +1277,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1318,7 +1309,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1350,7 +1341,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1382,7 +1373,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1414,7 +1405,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45906.6779978819</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45906.6038499653</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6038499653</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45906.6645811343</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.6647589468</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45906.6652153125</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6652153125</x:v>
+        <x:v>45906.6656297454</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6656297454</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45918.3656005787</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45918.3656005787</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1880,38 +1871,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1924,9 +1883,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Computer Aided Design and Manufacturing CAD/CAM (MDPS332) Location : [1521]Blue Room- 45- الجيزة الرئيسي-45-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS332_Lecture-35376.xlsx
+++ b/downloaded_files/MDPS332_Lecture-35376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -111,15 +111,6 @@
     <x:t>Daniel Raed Mounir Takawi</x:t>
   </x:si>
   <x:si>
-    <x:t>1210223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روان محمد سموءل رزق سالم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rawan Mohamed Samawal Rezk</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210232</x:t>
   </x:si>
   <x:si>
@@ -171,7 +162,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Fares Salaheldin Ahmed Fouad</x:t>
+    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220311</x:t>
@@ -201,6 +192,15 @@
     <x:t>Fayrouz Ahmed Magdy Moharam Saleh</x:t>
   </x:si>
   <x:si>
+    <x:t>1230091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن هشام محمد فؤاد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Hesham mohamed foad</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230168</x:t>
   </x:si>
   <x:si>
@@ -289,15 +289,6 @@
   </x:si>
   <x:si>
     <x:t>malak yasser saad ahmed sallam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منة الله مدحت عبد الرازق على عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menna Tullah Medhat Abdelrazik Aly</x:t>
   </x:si>
   <x:si>
     <x:t>1200305</x:t>
@@ -440,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -750,7 +741,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.180625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="47.530625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1117,7 +1108,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6647797454</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1149,7 +1140,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1181,7 +1172,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1213,7 +1204,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1245,7 +1236,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1277,7 +1268,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1373,7 +1364,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45925.4191403588</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6656297454</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45918.3656005787</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45918.3656005787</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1838,38 +1829,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS332_Lecture-35376.xlsx
+++ b/downloaded_files/MDPS332_Lecture-35376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>AHMED MOHAMMED ELAMIR SAYED MAHMOUD</x:t>
   </x:si>
   <x:si>
-    <x:t>4230142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد مدحت عبدالعزيز على عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Medhat Abdel Aziz Ali Awad</x:t>
-  </x:si>
-  <x:si>
     <x:t>4210403</x:t>
   </x:si>
   <x:si>
@@ -69,15 +60,6 @@
     <x:t>Ahmed Hisham Muhammad Abu Al-Azayem, Mukhtar</x:t>
   </x:si>
   <x:si>
-    <x:t>1210132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيشوى كمال برسوم كمال ابو غالى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bishoy Kamal Barsoum Kamal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210349</x:t>
   </x:si>
   <x:si>
@@ -87,6 +69,15 @@
     <x:t>Jana Ayman Wafaey</x:t>
   </x:si>
   <x:si>
+    <x:t>1220166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جولى حازم شوقى سليمان داود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>julie hazem shawky soliman Dawoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220116</x:t>
   </x:si>
   <x:si>
@@ -111,15 +102,6 @@
     <x:t>Daniel Raed Mounir Takawi</x:t>
   </x:si>
   <x:si>
-    <x:t>1210232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زينة جميل إسماعيل إسماعيل العباسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeena Jameel Ismail Ismail Alabasy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200416</x:t>
   </x:si>
   <x:si>
@@ -129,13 +111,13 @@
     <x:t>Shehab Ashraf Taha Ghalab</x:t>
   </x:si>
   <x:si>
-    <x:t>1220178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman amr</x:t>
+    <x:t>1220262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر الوليد محمد السيد إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210268</x:t>
@@ -174,15 +156,6 @@
     <x:t>Fatmaelzahraa Ashraf Abdalla Soliman</x:t>
   </x:si>
   <x:si>
-    <x:t>1210409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاطمه عبدالعزيز محمد عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220136</x:t>
   </x:si>
   <x:si>
@@ -201,15 +174,6 @@
     <x:t>Mazen Hesham mohamed foad</x:t>
   </x:si>
   <x:si>
-    <x:t>4230168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد اشرف محمد مصلحى زمزم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ashraf</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220141</x:t>
   </x:si>
   <x:si>
@@ -237,13 +201,31 @@
     <x:t>Mohamed Abdelaty Mohamed Abdelaty Atwa</x:t>
   </x:si>
   <x:si>
-    <x:t>1220199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مصطفى سيد امين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
+    <x:t>1220277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد كريم احمد على الحملي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد وليد محمد جاد الكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed waleed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد محمود علي محمد سلامة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Mahmoud Ali Mohamed Salama</x:t>
   </x:si>
   <x:si>
     <x:t>1220200</x:t>
@@ -264,33 +246,6 @@
     <x:t>Marwan Mohamed Ashour Hassanin</x:t>
   </x:si>
   <x:si>
-    <x:t>1210307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى شادي محمود محمد الشجيع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Hany Abdelfattah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210311</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك ياسر سعد احمد سلام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>malak yasser saad ahmed sallam</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200305</x:t>
   </x:si>
   <x:si>
@@ -316,6 +271,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohsen Samy Yakoub</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف مصطفى محمد محمد شميلة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mostafa Mohamed Mohamed Shemela</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -431,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -886,7 +850,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6651380787</x:v>
+        <x:v>45906.4142475694</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -918,7 +882,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4142475694</x:v>
+        <x:v>45906.6659809838</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -950,7 +914,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6656665856</x:v>
+        <x:v>45927.4159515857</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -978,11 +942,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45906.6659809838</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1005,14 +967,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45927.4228793634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1044,7 +1008,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6653211806</x:v>
+        <x:v>45906.665266088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1076,7 +1040,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.665266088</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1108,7 +1072,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45927.4175172454</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1140,7 +1104,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1172,7 +1136,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1204,7 +1168,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1236,7 +1200,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1268,7 +1232,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1300,7 +1264,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45925.4191403588</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1332,7 +1296,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1364,7 +1328,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45906.6038499653</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1396,7 +1360,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45925.4191403588</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1428,7 +1392,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45927.4334231481</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1460,7 +1424,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45927.6151517708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1492,7 +1456,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6038499653</x:v>
+        <x:v>45927.4145556366</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1556,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1588,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45918.3656005787</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1648,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45927.4192253472</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1701,134 +1665,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.6652153125</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.6647594907</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45918.3656005787</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS332_Lecture-35376.xlsx
+++ b/downloaded_files/MDPS332_Lecture-35376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4230136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم محمود ابراهيم محمد ابوالنور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220029</x:t>
   </x:si>
   <x:si>
@@ -120,6 +129,15 @@
     <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد محمود احمد النشار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Mahmoud Ahmed El-Nashar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210268</x:t>
   </x:si>
   <x:si>
@@ -264,6 +282,15 @@
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
   </x:si>
   <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210340</x:t>
   </x:si>
   <x:si>
@@ -271,15 +298,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohsen Samy Yakoub</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف مصطفى محمد محمد شميلة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mostafa Mohamed Mohamed Shemela</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -395,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -704,7 +722,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.180625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="47.530625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="49.810625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -786,7 +804,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45909.4156393518</x:v>
+        <x:v>45927.7828753472</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -818,7 +836,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6810370718</x:v>
+        <x:v>45909.4156393518</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -850,7 +868,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4142475694</x:v>
+        <x:v>45906.6810370718</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -882,7 +900,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6659809838</x:v>
+        <x:v>45906.4142475694</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -914,7 +932,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4159515857</x:v>
+        <x:v>45906.6659809838</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -942,9 +960,11 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45927.4159515857</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -967,16 +987,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45927.4228793634</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1008,7 +1026,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.665266088</x:v>
+        <x:v>45927.4228793634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1040,7 +1058,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.665266088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1072,7 +1090,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4175172454</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1104,7 +1122,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45927.4175172454</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1136,7 +1154,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45927.6652366551</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,7 +1186,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,7 +1218,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1232,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1264,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45925.4191403588</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1296,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1328,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6038499653</x:v>
+        <x:v>45925.4191403588</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1360,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1392,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4334231481</x:v>
+        <x:v>45906.6038499653</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.6151517708</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4145556366</x:v>
+        <x:v>45927.4334231481</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45927.6151517708</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45927.4145556366</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.3656005787</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4192253472</x:v>
+        <x:v>45918.3656005787</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1683,70 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45927.9276508912</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45906.4148245023</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS332_Lecture-35376.xlsx
+++ b/downloaded_files/MDPS332_Lecture-35376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
   </x:si>
   <x:si>
-    <x:t>1220029</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد اسامه شحاته احمد مرعوه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Osama Shehata Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220110</x:t>
   </x:si>
   <x:si>
@@ -127,15 +118,6 @@
   </x:si>
   <x:si>
     <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد محمود احمد النشار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Mahmoud Ahmed El-Nashar</x:t>
   </x:si>
   <x:si>
     <x:t>1210268</x:t>
@@ -413,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -836,7 +818,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.4156393518</x:v>
+        <x:v>45906.6810370718</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -868,7 +850,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6810370718</x:v>
+        <x:v>45906.4142475694</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -900,7 +882,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4142475694</x:v>
+        <x:v>45906.6659809838</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -932,7 +914,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6659809838</x:v>
+        <x:v>45927.4159515857</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -960,11 +942,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45927.4159515857</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -987,14 +967,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45927.4228793634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1026,7 +1008,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4228793634</x:v>
+        <x:v>45906.665266088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1058,7 +1040,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.665266088</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1090,7 +1072,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45927.4175172454</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1122,7 +1104,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4175172454</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1154,7 +1136,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.6652366551</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1186,7 +1168,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1218,7 +1200,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1250,7 +1232,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1264,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45925.4191403588</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1296,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1328,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45925.4191403588</x:v>
+        <x:v>45906.6038499653</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1360,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1392,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6038499653</x:v>
+        <x:v>45927.4334231481</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1424,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45927.6151517708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1456,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4334231481</x:v>
+        <x:v>45927.4145556366</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.6151517708</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4145556366</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45918.3656005787</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45927.9276508912</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1648,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45918.3656005787</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1683,70 +1665,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45927.9276508912</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS332_Lecture-35376.xlsx
+++ b/downloaded_files/MDPS332_Lecture-35376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
   </x:si>
   <x:si>
+    <x:t>1220029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد اسامه شحاته احمد مرعوه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Osama Shehata Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220110</x:t>
   </x:si>
   <x:si>
@@ -237,6 +246,15 @@
     <x:t>Marwan Ahmed Saber Hamed Ali</x:t>
   </x:si>
   <x:si>
+    <x:t>1220279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان عمرو عبدالمجيد فؤاد احمد شكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Amr Abdelmagid</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220129</x:t>
   </x:si>
   <x:si>
@@ -262,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف خالد فهمى عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Khaled Fahmy Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1220297</x:t>
@@ -395,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -818,7 +845,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6810370718</x:v>
+        <x:v>45928.8592123495</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -850,7 +877,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4142475694</x:v>
+        <x:v>45906.6810370718</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -882,7 +909,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6659809838</x:v>
+        <x:v>45906.4142475694</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -914,7 +941,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4159515857</x:v>
+        <x:v>45906.6659809838</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -942,9 +969,11 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45927.4159515857</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -967,16 +996,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45927.4228793634</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1008,7 +1035,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.665266088</x:v>
+        <x:v>45927.4228793634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1040,7 +1067,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.665266088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1072,7 +1099,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4175172454</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1104,7 +1131,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45927.4175172454</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1136,7 +1163,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,7 +1195,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,7 +1227,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1232,7 +1259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1264,7 +1291,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45925.4191403588</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1296,7 +1323,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45925.4191403588</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1328,7 +1355,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6038499653</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1360,7 +1387,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45906.6038499653</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1392,7 +1419,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4334231481</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1451,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.6151517708</x:v>
+        <x:v>45927.4334231481</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1483,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4145556366</x:v>
+        <x:v>45927.6151517708</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1515,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45927.4145556366</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1547,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1579,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45928.6744700232</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1611,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.3656005787</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.9276508912</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45918.3656005787</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1692,102 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45928.6671537847</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45927.9276508912</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45906.4148245023</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS332_Lecture-35376.xlsx
+++ b/downloaded_files/MDPS332_Lecture-35376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220029</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد اسامه شحاته احمد مرعوه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Osama Shehata Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4220110</x:t>
@@ -422,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -845,7 +836,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45928.8592123495</x:v>
+        <x:v>45906.6810370718</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -877,7 +868,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6810370718</x:v>
+        <x:v>45906.4142475694</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -909,7 +900,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4142475694</x:v>
+        <x:v>45906.6659809838</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -941,7 +932,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6659809838</x:v>
+        <x:v>45927.4159515857</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -969,11 +960,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45927.4159515857</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -996,14 +985,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45927.4228793634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1035,7 +1026,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4228793634</x:v>
+        <x:v>45906.665266088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1067,7 +1058,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.665266088</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1099,7 +1090,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45927.4175172454</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1131,7 +1122,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4175172454</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1163,7 +1154,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1195,7 +1186,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1227,7 +1218,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1259,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1291,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45925.4191403588</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1323,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45925.4191403588</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1355,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45906.6038499653</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6038499653</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45927.4334231481</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4334231481</x:v>
+        <x:v>45927.6151517708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.6151517708</x:v>
+        <x:v>45927.4145556366</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4145556366</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45928.6744700232</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45928.6744700232</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45918.3656005787</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45918.3656005787</x:v>
+        <x:v>45928.6671537847</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45928.6671537847</x:v>
+        <x:v>45927.9276508912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.9276508912</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1756,38 +1747,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS332_Lecture-35376.xlsx
+++ b/downloaded_files/MDPS332_Lecture-35376.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -82,15 +82,6 @@
   </x:si>
   <x:si>
     <x:t>حسين ياسر محمد ابراهيم صقر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد اشرف وفا محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled ashraf wafa mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210350</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -994,7 +985,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4228793634</x:v>
+        <x:v>45906.665266088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1026,7 +1017,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.665266088</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1058,7 +1049,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45927.4175172454</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1090,7 +1081,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4175172454</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1122,7 +1113,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1154,7 +1145,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45906.4313854514</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1186,7 +1177,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4313854514</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1218,7 +1209,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1250,7 +1241,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45925.4191403588</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1273,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45925.4191403588</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1305,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45906.6038499653</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1337,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6038499653</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45927.4334231481</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4334231481</x:v>
+        <x:v>45927.6151517708</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.6151517708</x:v>
+        <x:v>45927.4145556366</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4145556366</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45928.6744700232</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45928.6744700232</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45918.3656005787</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45918.3656005787</x:v>
+        <x:v>45928.6671537847</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45928.6671537847</x:v>
+        <x:v>45927.9276508912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.9276508912</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1715,38 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.4148245023</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS332_Lecture-35376.xlsx
+++ b/downloaded_files/MDPS332_Lecture-35376.xlsx
@@ -135,7 +135,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
+    <x:t>Fares Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220311</x:t>
